--- a/tl/S10032.MES.BIN.xlsx
+++ b/tl/S10032.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB93F3B-E07A-4A72-85E3-E04230C04E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070487FF-6CDC-42E7-A824-A8EFCC6AD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="5460" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="16215" windowWidth="55245" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10032.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -557,7 +557,7 @@
     <col min="5" max="10" width="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -621,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -781,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -845,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
